--- a/biology/Zoologie/Dolomedes_pedder/Dolomedes_pedder.xlsx
+++ b/biology/Zoologie/Dolomedes_pedder/Dolomedes_pedder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes pedder est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes pedder est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 11,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 11,4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le lac Pedder.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
